--- a/data/trans_dic/CoPsoQ_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/CoPsoQ_R-Provincia-trans_dic.xlsx
@@ -655,7 +655,7 @@
         <v>0.302392382024732</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.09266783325615577</v>
+        <v>0.09266783325615578</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.3742027279452242</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2897453243579799</v>
+        <v>0.2859436498603857</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2641299743491259</v>
+        <v>0.2604755637588713</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.05602394499911369</v>
+        <v>0.04423727070185451</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2752987725649117</v>
+        <v>0.2717642231521822</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2168245554604489</v>
+        <v>0.2153435185872899</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03744203315442191</v>
+        <v>0.03298621603849496</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2984813020670189</v>
+        <v>0.3032107023294232</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.260702817241239</v>
+        <v>0.2599734853192011</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.06736136612969591</v>
+        <v>0.06929622473389517</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4730732906237153</v>
+        <v>0.4617039622902178</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4278811370371798</v>
+        <v>0.4340226048700596</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3841321247016831</v>
+        <v>0.3539597377559072</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4953231471418963</v>
+        <v>0.5112241374976902</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4074196524479192</v>
+        <v>0.398652361120622</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2071775493939268</v>
+        <v>0.192636927424588</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4375351835548997</v>
+        <v>0.4433766419582029</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3910649967783038</v>
+        <v>0.388392806885609</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2677838446693304</v>
+        <v>0.2579138389474124</v>
       </c>
     </row>
     <row r="7">
@@ -773,7 +773,7 @@
         <v>0.217908338890397</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.4094872593686951</v>
+        <v>0.4094872593686953</v>
       </c>
     </row>
     <row r="8">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1457077232124406</v>
+        <v>0.1437794387983097</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1601332914830836</v>
+        <v>0.1590923107130354</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2898877920144181</v>
+        <v>0.2645429937601662</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1505488850524189</v>
+        <v>0.148572308087379</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1482729282362121</v>
+        <v>0.1396420466355376</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2445660095221693</v>
+        <v>0.2338893951053758</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1698908928374326</v>
+        <v>0.1650331692082647</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1737598062914323</v>
+        <v>0.173273285223366</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2973745357050724</v>
+        <v>0.3036726481167578</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2784735221589248</v>
+        <v>0.2776061886766401</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2934187001436953</v>
+        <v>0.2935056162743681</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6358586808688689</v>
+        <v>0.6023958078163649</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3046127666730669</v>
+        <v>0.304761226345156</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2984635968789853</v>
+        <v>0.2928465558508015</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5031368703303241</v>
+        <v>0.5050643649426613</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.274394621797735</v>
+        <v>0.2659045022752268</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2750965354114671</v>
+        <v>0.2756474677053397</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.5228016750778665</v>
+        <v>0.5325317688973016</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1568025092253972</v>
+        <v>0.1584076824951968</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2228947462412004</v>
+        <v>0.2228849516429436</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1218206199652034</v>
+        <v>0.1244702977959974</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1968876019183891</v>
+        <v>0.1988394550116969</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.175429586159506</v>
+        <v>0.1713020985038203</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1252768575108198</v>
+        <v>0.1334681691104211</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1978447434687941</v>
+        <v>0.1963748382991746</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2259052723068258</v>
+        <v>0.22422459583025</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1512879064397809</v>
+        <v>0.1560925362398939</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.302907005142591</v>
+        <v>0.2962177645761245</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3700701949352779</v>
+        <v>0.3797625539175404</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4147745181018236</v>
+        <v>0.4328065731959103</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4007792863916038</v>
+        <v>0.4050524628542768</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3624325810205978</v>
+        <v>0.3610578537897763</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4224826837402815</v>
+        <v>0.4258740662220584</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.314305477014055</v>
+        <v>0.3132063232310583</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3451169209824793</v>
+        <v>0.3438760146643796</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3740866470199743</v>
+        <v>0.3678905305905068</v>
       </c>
     </row>
     <row r="13">
@@ -973,7 +973,7 @@
         <v>0.3128158751972858</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.3470244194603992</v>
+        <v>0.347024419460399</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.1498995217660762</v>
@@ -991,7 +991,7 @@
         <v>0.3468722727974697</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.3746022075263041</v>
+        <v>0.374602207526304</v>
       </c>
     </row>
     <row r="14">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.136819468940037</v>
+        <v>0.1328154414786138</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2275747693463963</v>
+        <v>0.2342254434432492</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1921870193142956</v>
+        <v>0.1978939642458012</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.08839739572262884</v>
+        <v>0.0901617580696617</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2855423270058437</v>
+        <v>0.2965706091685972</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2643297877939518</v>
+        <v>0.2499227076214389</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1293995361357845</v>
+        <v>0.1272133423083743</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.278597667020298</v>
+        <v>0.2843579516474778</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2593059208839903</v>
+        <v>0.2582270910813073</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2730103757819927</v>
+        <v>0.2729659433538213</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4084524503672006</v>
+        <v>0.4102167414357022</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5349064213229588</v>
+        <v>0.5285411134061347</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2370924996578239</v>
+        <v>0.241347527733462</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5003199291494408</v>
+        <v>0.519932448480236</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.578874089357018</v>
+        <v>0.5784457765916198</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2361174212335179</v>
+        <v>0.2352883745318753</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4190126042290056</v>
+        <v>0.4266515742924321</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4879274602267411</v>
+        <v>0.502955713040054</v>
       </c>
     </row>
     <row r="16">
@@ -1082,7 +1082,7 @@
         <v>0.1530158815808747</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.2351278550232107</v>
+        <v>0.2351278550232106</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.2741150281939401</v>
@@ -1091,7 +1091,7 @@
         <v>0.1650879613271922</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.3886554465267638</v>
+        <v>0.3886554465267639</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.3953256220098669</v>
@@ -1100,7 +1100,7 @@
         <v>0.1579225454524729</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.3137382474284633</v>
+        <v>0.3137382474284632</v>
       </c>
     </row>
     <row r="17">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3545671957057336</v>
+        <v>0.3588677162035834</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.09409565063770851</v>
+        <v>0.08351660486853144</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.09701081680869443</v>
+        <v>0.1011224936107207</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1643735296437223</v>
+        <v>0.1677218019746002</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.08357697853168079</v>
+        <v>0.08392000436534537</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2361532405450759</v>
+        <v>0.2343702126456728</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3185281418704249</v>
+        <v>0.3105819782036615</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1002343388896891</v>
+        <v>0.1051315764676225</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2036734230892012</v>
+        <v>0.2156151568029996</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5988288620107945</v>
+        <v>0.5969132608562832</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2376416814979227</v>
+        <v>0.2434478683769875</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.411739761360124</v>
+        <v>0.4348333728601894</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4210539911356131</v>
+        <v>0.4102522566978178</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2853885385872606</v>
+        <v>0.2774810429526581</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.5589594852635353</v>
+        <v>0.5446461439123185</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4937219018767207</v>
+        <v>0.4887098302693243</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2246524457222585</v>
+        <v>0.2269145678704136</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.432044998589676</v>
+        <v>0.4369668752494052</v>
       </c>
     </row>
     <row r="19">
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.133354519005968</v>
+        <v>0.1342802342153</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1281796278613205</v>
+        <v>0.1262357877335032</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2126298632710194</v>
+        <v>0.2225655617922765</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2075882705635278</v>
+        <v>0.1931712112706861</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.05197384315020963</v>
+        <v>0.05955496950604802</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.09444379025099346</v>
+        <v>0.07996705383010579</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1775666557342159</v>
+        <v>0.1750871259096006</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1125134790581736</v>
+        <v>0.1173893034605217</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2011060506759695</v>
+        <v>0.1982025482272582</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2857449614263731</v>
+        <v>0.2932507124895883</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2809583627077132</v>
+        <v>0.2910082392789101</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.5287206407529715</v>
+        <v>0.5409526231622926</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.4634989059154221</v>
+        <v>0.4553018998689525</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1999782620142847</v>
+        <v>0.1968609691928483</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.4051822702672621</v>
+        <v>0.4052045653654549</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3147244360021734</v>
+        <v>0.3119845545287049</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2250429810032805</v>
+        <v>0.2262089596075531</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.4368312929353804</v>
+        <v>0.4312541932379699</v>
       </c>
     </row>
     <row r="22">
@@ -1300,7 +1300,7 @@
         <v>0.3001980763956922</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.407260509004266</v>
+        <v>0.4072605090042659</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.3019056912410433</v>
@@ -1309,7 +1309,7 @@
         <v>0.2886496163658469</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.3454694822922305</v>
+        <v>0.3454694822922307</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.2713140900575314</v>
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2013813687857901</v>
+        <v>0.1990879462915963</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2492058393668067</v>
+        <v>0.2502007841851673</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2906646206481281</v>
+        <v>0.3002139766345894</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2404132325346201</v>
+        <v>0.2342681288103018</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2387188233709369</v>
+        <v>0.2378218385617647</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.264069116961724</v>
+        <v>0.2618944431413248</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2252903960755637</v>
+        <v>0.2245525736741812</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2593066743104695</v>
+        <v>0.2584522010836844</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.3116416392684018</v>
+        <v>0.3120575314614195</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3170182170365161</v>
+        <v>0.3114622826067058</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3558686045379736</v>
+        <v>0.3494050023223718</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5284555762031263</v>
+        <v>0.5316936563746922</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.381184331822475</v>
+        <v>0.3733368919502348</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3469495982601662</v>
+        <v>0.3453166028576185</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4429853662734023</v>
+        <v>0.4383061090915606</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3184916914815026</v>
+        <v>0.3160971014131012</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3317388199166798</v>
+        <v>0.336394188740326</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.458076326108841</v>
+        <v>0.450580660364114</v>
       </c>
     </row>
     <row r="25">
@@ -1438,31 +1438,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.09150175402947787</v>
+        <v>0.0925601673459595</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.03954319800088191</v>
+        <v>0.03972505808744953</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.2046471048086487</v>
+        <v>0.2077996734391961</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.09353062995649848</v>
+        <v>0.0926024268325559</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.08631416259589141</v>
+        <v>0.08601248912976417</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1798338490793231</v>
+        <v>0.1799214747366373</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.103099850040124</v>
+        <v>0.1029036289902469</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.06756470019967645</v>
+        <v>0.06576983091136403</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.2187458095295973</v>
+        <v>0.2125548008073249</v>
       </c>
     </row>
     <row r="27">
@@ -1473,31 +1473,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1675636603853531</v>
+        <v>0.170183914353556</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.09361934955439402</v>
+        <v>0.09554585313630579</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.3755715876760208</v>
+        <v>0.383946954267513</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1845609602193058</v>
+        <v>0.1815698560847984</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1703815507846079</v>
+        <v>0.1798885972824483</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.337496666367727</v>
+        <v>0.3403299204670029</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1617759784014425</v>
+        <v>0.1635883600294515</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1143018125221924</v>
+        <v>0.1148265023818068</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.3406748738747505</v>
+        <v>0.3307546144660482</v>
       </c>
     </row>
     <row r="28">
@@ -1527,7 +1527,7 @@
         <v>0.2302138012550605</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.2989929277197984</v>
+        <v>0.2989929277197983</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>0.2291672480465452</v>
@@ -1547,31 +1547,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.2027296840138433</v>
+        <v>0.2007095625083857</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.202743993763595</v>
+        <v>0.2036417663168986</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.2787704173578103</v>
+        <v>0.2763562495408796</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.2077634145738645</v>
+        <v>0.2087168315904143</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.205067052927574</v>
+        <v>0.2048017500023826</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.2567765467746382</v>
+        <v>0.256000868462268</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.2120000228384814</v>
+        <v>0.2123517700246179</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.2110976301665004</v>
+        <v>0.2098900178802231</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.2809587318117208</v>
+        <v>0.2815931544431111</v>
       </c>
     </row>
     <row r="30">
@@ -1582,31 +1582,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.2476916184314259</v>
+        <v>0.2499208745971675</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.2489837949415027</v>
+        <v>0.2486548392917711</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.3834140409892814</v>
+        <v>0.3781325136137029</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.2684110291502007</v>
+        <v>0.2649854549762348</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.2589877714230741</v>
+        <v>0.2583904854691314</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.3444009797154803</v>
+        <v>0.3423619537015343</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.2473785216602129</v>
+        <v>0.2492444326575552</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.2446288621865067</v>
+        <v>0.2448807734461273</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.3495149328954149</v>
+        <v>0.3484875635908848</v>
       </c>
     </row>
     <row r="31">
@@ -1839,31 +1839,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>35320</v>
+        <v>34857</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>35143</v>
+        <v>34657</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2288</v>
+        <v>1807</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>22893</v>
+        <v>22599</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>21698</v>
+        <v>21549</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1226</v>
+        <v>1080</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>61206</v>
+        <v>62176</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>60775</v>
+        <v>60605</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>4957</v>
+        <v>5099</v>
       </c>
     </row>
     <row r="7">
@@ -1874,31 +1874,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>57668</v>
+        <v>56282</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>56930</v>
+        <v>57747</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>15688</v>
+        <v>14456</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>41190</v>
+        <v>42512</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>40770</v>
+        <v>39893</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>6783</v>
+        <v>6307</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>89720</v>
+        <v>90918</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>91165</v>
+        <v>90542</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>19704</v>
+        <v>18978</v>
       </c>
     </row>
     <row r="8">
@@ -1983,31 +1983,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>24956</v>
+        <v>24626</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>27270</v>
+        <v>27093</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>15014</v>
+        <v>13701</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>18158</v>
+        <v>17920</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>16856</v>
+        <v>15875</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>10527</v>
+        <v>10068</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>49589</v>
+        <v>48171</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>49344</v>
+        <v>49206</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>28202</v>
+        <v>28799</v>
       </c>
     </row>
     <row r="11">
@@ -2018,31 +2018,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>47696</v>
+        <v>47547</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>49968</v>
+        <v>49983</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>32932</v>
+        <v>31199</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>36740</v>
+        <v>36758</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>33929</v>
+        <v>33291</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>21657</v>
+        <v>21740</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>80093</v>
+        <v>77615</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>78121</v>
+        <v>78278</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>49580</v>
+        <v>50503</v>
       </c>
     </row>
     <row r="12">
@@ -2127,31 +2127,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>21066</v>
+        <v>21281</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>27993</v>
+        <v>27992</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3509</v>
+        <v>3585</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>15424</v>
+        <v>15577</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>14795</v>
+        <v>14446</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>3418</v>
+        <v>3641</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>42078</v>
+        <v>41766</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>47422</v>
+        <v>47070</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>8485</v>
+        <v>8755</v>
       </c>
     </row>
     <row r="15">
@@ -2162,31 +2162,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>40694</v>
+        <v>39795</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>46477</v>
+        <v>47694</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>11948</v>
+        <v>12467</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>31396</v>
+        <v>31731</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>30565</v>
+        <v>30449</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>11526</v>
+        <v>11618</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>66847</v>
+        <v>66614</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>72448</v>
+        <v>72187</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>20981</v>
+        <v>20634</v>
       </c>
     </row>
     <row r="16">
@@ -2271,31 +2271,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>19377</v>
+        <v>18810</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>25529</v>
+        <v>26275</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>13110</v>
+        <v>13499</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>8869</v>
+        <v>9046</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>23374</v>
+        <v>24277</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>11809</v>
+        <v>11165</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>31309</v>
+        <v>30780</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>54059</v>
+        <v>55177</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>29273</v>
+        <v>29151</v>
       </c>
     </row>
     <row r="19">
@@ -2306,31 +2306,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>38665</v>
+        <v>38659</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>45820</v>
+        <v>46018</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>36489</v>
+        <v>36054</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>23787</v>
+        <v>24214</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>40956</v>
+        <v>42561</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>25861</v>
+        <v>25841</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>57129</v>
+        <v>56929</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>81305</v>
+        <v>82787</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>55082</v>
+        <v>56778</v>
       </c>
     </row>
     <row r="20">
@@ -2415,31 +2415,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>28820</v>
+        <v>29169</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>7615</v>
+        <v>6759</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2151</v>
+        <v>2242</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>8834</v>
+        <v>9014</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>4632</v>
+        <v>4651</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>5494</v>
+        <v>5453</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>43010</v>
+        <v>41937</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>13667</v>
+        <v>14334</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>9254</v>
+        <v>9797</v>
       </c>
     </row>
     <row r="23">
@@ -2450,31 +2450,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>48674</v>
+        <v>48518</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>19232</v>
+        <v>19702</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>9129</v>
+        <v>9641</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>22630</v>
+        <v>22049</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>15816</v>
+        <v>15377</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>13004</v>
+        <v>12671</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>66666</v>
+        <v>65990</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>30631</v>
+        <v>30939</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>19631</v>
+        <v>19854</v>
       </c>
     </row>
     <row r="24">
@@ -2559,31 +2559,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>15278</v>
+        <v>15384</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>13780</v>
+        <v>13571</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>7115</v>
+        <v>7447</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>11478</v>
+        <v>10681</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>3928</v>
+        <v>4500</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1871</v>
+        <v>1584</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>30161</v>
+        <v>29740</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>20598</v>
+        <v>21491</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>10713</v>
+        <v>10558</v>
       </c>
     </row>
     <row r="27">
@@ -2594,31 +2594,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>32736</v>
+        <v>33596</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>30204</v>
+        <v>31284</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>17691</v>
+        <v>18100</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>25628</v>
+        <v>25175</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>15112</v>
+        <v>14876</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>8027</v>
+        <v>8028</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>53458</v>
+        <v>52993</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>41199</v>
+        <v>41412</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>23270</v>
+        <v>22973</v>
       </c>
     </row>
     <row r="28">
@@ -2703,31 +2703,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>53732</v>
+        <v>53120</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>89434</v>
+        <v>89791</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>26227</v>
+        <v>27088</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>43060</v>
+        <v>41960</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>67759</v>
+        <v>67505</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>24615</v>
+        <v>24413</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>100464</v>
+        <v>100135</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>166662</v>
+        <v>166113</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>57169</v>
+        <v>57245</v>
       </c>
     </row>
     <row r="31">
@@ -2738,31 +2738,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>84586</v>
+        <v>83104</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>127712</v>
+        <v>125393</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>47683</v>
+        <v>47975</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>68274</v>
+        <v>66868</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>98480</v>
+        <v>98017</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>41293</v>
+        <v>40857</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>142025</v>
+        <v>140957</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>213216</v>
+        <v>216208</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>84032</v>
+        <v>82657</v>
       </c>
     </row>
     <row r="32">
@@ -2847,31 +2847,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>32758</v>
+        <v>33137</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>12967</v>
+        <v>13026</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>28015</v>
+        <v>28447</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>23884</v>
+        <v>23647</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>20474</v>
+        <v>20403</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>17976</v>
+        <v>17985</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>63238</v>
+        <v>63118</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>38182</v>
+        <v>37168</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>51811</v>
+        <v>50345</v>
       </c>
     </row>
     <row r="35">
@@ -2882,31 +2882,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>59989</v>
+        <v>60927</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>30699</v>
+        <v>31331</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>51414</v>
+        <v>52560</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>47130</v>
+        <v>46366</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>40416</v>
+        <v>42671</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>33736</v>
+        <v>34019</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>99228</v>
+        <v>100340</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>64594</v>
+        <v>64891</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>80691</v>
+        <v>78341</v>
       </c>
     </row>
     <row r="36">
@@ -2991,31 +2991,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>281758</v>
+        <v>278950</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>287154</v>
+        <v>288425</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>131693</v>
+        <v>130553</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>192378</v>
+        <v>193261</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>211626</v>
+        <v>211352</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>98600</v>
+        <v>98302</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>490943</v>
+        <v>491757</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>516834</v>
+        <v>513878</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>240613</v>
+        <v>241156</v>
       </c>
     </row>
     <row r="39">
@@ -3026,31 +3026,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>344247</v>
+        <v>347345</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>352645</v>
+        <v>352179</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>181128</v>
+        <v>178633</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>248534</v>
+        <v>245362</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>267271</v>
+        <v>266654</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>132247</v>
+        <v>131464</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>572871</v>
+        <v>577192</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>598929</v>
+        <v>599546</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>299325</v>
+        <v>298445</v>
       </c>
     </row>
     <row r="40">
